--- a/src/test/resource/data/tracking/tracking_viettel.xlsx
+++ b/src/test/resource/data/tracking/tracking_viettel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\SearchNumber\src\test\resource\data\tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8CB3D-A611-47A4-9494-8E093DE56618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F123F-4121-4BC0-BDCF-25FF7CD9772F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,6 +372,14 @@
         <v>969600000</v>
       </c>
       <c r="B6">
+        <v>969610884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>969610884</v>
+      </c>
+      <c r="B7">
         <v>969699999</v>
       </c>
     </row>
